--- a/テスト仕様書/演習１テスト仕様書.xlsx
+++ b/テスト仕様書/演習１テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspacd/ex-intermediate-answer/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28AC427A-7D4E-374D-B2FB-26671916F016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82930B57-BE7F-E940-923F-9D3D51B59E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="960" windowWidth="27900" windowHeight="16140" xr2:uid="{7F154582-5C1D-614D-A5D3-E61E0E98A811}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="事前準備用SQL2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,990 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
-  <si>
-    <r>
-      <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>洋服</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ジャケット</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>',0,'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>',15000,'L');</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>洋服</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>帽子　　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>',1,'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>',10000,'S');</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>洋服</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ｔシャツ　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>',1,'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>青</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>',5000,'M');</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>洋服</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>パンツ　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>',0,'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>',20000,'M');</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>洋服</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ジャケット</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>',0,'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>赤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>',10000,'S');</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
   <si>
     <t>);</t>
   </si>
   <si>
-    <t>size text</t>
-  </si>
-  <si>
-    <t>price integer,</t>
-  </si>
-  <si>
-    <t>color text,</t>
-  </si>
-  <si>
-    <t>gender integer,</t>
-  </si>
-  <si>
-    <t>genre text,</t>
-  </si>
-  <si>
-    <t>category text,</t>
-  </si>
-  <si>
     <t>id serial primary key,</t>
-  </si>
-  <si>
-    <t>CREATE TABLE clothes(</t>
-  </si>
-  <si>
-    <t>DROP TABLE IF EXISTS clothes CASCADE;</t>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>首都圏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>東京ベイ舞浜ホテル</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>千葉県浦安市舞浜１−３４</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>舞浜駅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','15000','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>あり</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>');</t>
-    </r>
-  </si>
-  <si>
-    <t>INSERT INTO hotels(area_name, hotel_name, address, nearest_station, price, parking) VALUES (</t>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>首都圏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>渋谷エクセルホテル東急</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>東京都渋谷区道玄坂１−１２−２</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>渋谷駅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','10000','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>なし</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>');</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>首都圏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ホテルローズガーデン新宿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>東京都新宿区西新宿８−１−３</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>西新宿駅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','5000','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>あり</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>');</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>首都圏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>パレスホテル東京</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>東京都千代田区丸の内１丁目１−１</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>東京駅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','20000','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>なし</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>');</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>首都圏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>横浜ベイホテル東急</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>神奈川県横浜市西区みなとみらい２－３－７</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>桜木町駅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>','10000','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>あり</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>');</t>
-    </r>
-  </si>
-  <si>
-    <t>parking text</t>
-  </si>
-  <si>
-    <t>nearest_station text,</t>
-  </si>
-  <si>
-    <t>address text,</t>
-  </si>
-  <si>
-    <t>hotel_name text,</t>
-  </si>
-  <si>
-    <t>area_name text,</t>
-  </si>
-  <si>
-    <t>CREATE TABLE hotels(</t>
-  </si>
-  <si>
-    <t>DROP TABLE IF EXISTS hotels CASCADE;</t>
   </si>
   <si>
     <t>東京ヤクルトスワローズ（2006年〜）');</t>
@@ -3475,8 +2496,29 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3502,29 +2544,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3845,7 +2866,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E8"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="18"/>
@@ -3861,643 +2882,624 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20">
-      <c r="A1" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="20"/>
+        <v>78</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="20">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="21">
+        <v>76</v>
+      </c>
+      <c r="H2" s="12">
         <v>44004</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="A4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="D9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" ht="83" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="A29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9" ht="125" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="A34" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="A39" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9" ht="20" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="I34:I38"/>
     <mergeCell ref="G24:G28"/>
     <mergeCell ref="H24:H28"/>
     <mergeCell ref="I24:I28"/>
@@ -4514,26 +3516,45 @@
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="E24:E28"/>
     <mergeCell ref="H29:H33"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4543,7 +3564,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC66152E-6C33-D545-B126-35E662E79CCE}">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4554,487 +3575,312 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="B67" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="B68" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="B69" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="B70" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="B71" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="B72" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="B73" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="B90" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="B91" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="B92" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="B93" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="B94" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="B96" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5046,7 +3892,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF8693A-8159-AD4A-AAC0-92AC9920543A}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5057,152 +3903,52 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
